--- a/ProjektFiler/xlsx-docs/segment.xlsx
+++ b/ProjektFiler/xlsx-docs/segment.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\IdeaProjects\Machine_Learning_DT\ProjektFiler\xlsx-docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="our dtc" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="our rf" sheetId="3" r:id="rId3"/>
     <sheet name="their rf" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +127,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +213,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,24 +451,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7701284460586929</v>
+        <v>0.77012844605869291</v>
       </c>
       <c r="C2">
         <v>92.20779220779221</v>
       </c>
       <c r="D2">
-        <v>0.9215474683187341</v>
+        <v>0.92154746831873413</v>
       </c>
       <c r="E2">
-        <v>0.6670141313991247</v>
+        <v>0.66701413139912469</v>
       </c>
       <c r="F2">
-        <v>0.0004027843475341797</v>
+        <v>4.0278434753417971E-4</v>
       </c>
       <c r="G2">
         <v>159.5648384094238</v>
@@ -465,14 +480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -492,27 +507,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8813854914589555</v>
+        <v>0.88138549145895551</v>
       </c>
       <c r="C2">
-        <v>96.32034632034632</v>
+        <v>96.320346320346317</v>
       </c>
       <c r="D2">
-        <v>0.9625831982260584</v>
+        <v>0.96258319822605842</v>
       </c>
       <c r="E2">
-        <v>0.8169546730411066</v>
+        <v>0.81695467304110658</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01499381065368652</v>
+        <v>1.499381065368652E-2</v>
       </c>
     </row>
   </sheetData>
@@ -521,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="25.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -556,19 +571,19 @@
         <v>0.916517230889214</v>
       </c>
       <c r="C2">
-        <v>97.48917748917748</v>
+        <v>97.489177489177479</v>
       </c>
       <c r="D2">
-        <v>0.9748093402177131</v>
+        <v>0.97480934021771315</v>
       </c>
       <c r="E2">
-        <v>0.8672905604157076</v>
+        <v>0.86729056041570762</v>
       </c>
       <c r="F2">
-        <v>0.07501041889190674</v>
+        <v>7.5010418891906738E-2</v>
       </c>
       <c r="G2">
-        <v>145.0303200483322</v>
+        <v>145.03032004833219</v>
       </c>
     </row>
   </sheetData>
@@ -577,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -604,27 +619,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9365570481422996</v>
+        <v>0.93655704814229956</v>
       </c>
       <c r="C2">
         <v>98.13852813852813</v>
       </c>
       <c r="D2">
-        <v>0.9821526838606289</v>
+        <v>0.98215268386062893</v>
       </c>
       <c r="E2">
-        <v>0.8966177598145271</v>
+        <v>0.89661775981452707</v>
       </c>
       <c r="F2">
-        <v>0.000149989128112793</v>
+        <v>1.49989128112793E-4</v>
       </c>
       <c r="G2">
-        <v>0.03769025802612305</v>
+        <v>3.7690258026123052E-2</v>
       </c>
     </row>
   </sheetData>
